--- a/util/考试.xlsx
+++ b/util/考试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27015" windowHeight="12960" activeTab="5"/>
+    <workbookView windowWidth="13095" windowHeight="12960" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1982,7 +1982,27 @@
     <t>徕徕，Home</t>
   </si>
   <si>
-    <t>需要手动确定是否将生成的内容添加到表格中</t>
+    <r>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="WPS灵秀黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手动确定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="WPS灵秀黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否将生成的内容添加到表格中</t>
+    </r>
   </si>
   <si>
     <t>status
@@ -2012,10 +2032,30 @@
     <t>generate_query_code</t>
   </si>
   <si>
-    <t>需要手动操作，挑选没有下架的品，导出的文件还要检查
+    <r>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="WPS灵秀黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手动操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="WPS灵秀黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，挑选没有下架的品，导出的文件还要检查
 1. 淘汰掉那些主图背景色不是白色的品
 2. 有无图片缺失
 3. 父sku是否有子sku</t>
+    </r>
   </si>
   <si>
     <t>同步图片</t>
@@ -2024,13 +2064,35 @@
     <t>async_sync_img</t>
   </si>
   <si>
-    <t>需要检查是否有图片打不开</t>
+    <t>需要检查
+1. 是否有图片打不开
+2. 是否有图片主图背景色不为白色</t>
   </si>
   <si>
     <t>填写亚马逊的批量上传表格</t>
   </si>
   <si>
-    <t>需要手动确定是否保存title.xlsx, st250.xlsx, tgt.xlsx, 1.xlsx, erp_df_verify.xlsx</t>
+    <r>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="WPS灵秀黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手动确定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="WPS灵秀黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否保存title.xlsx, st250.xlsx, tgt.xlsx, 1.xlsx, erp_df_verify.xlsx</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2770,14 +2832,14 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2785,9 +2847,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3464,774 +3523,774 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="9.14285714285714" style="2"/>
-    <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="2"/>
-    <col min="7" max="7" width="16.7142857142857" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.14285714285714" style="2"/>
-    <col min="10" max="10" width="11.2857142857143" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.8571428571429" style="2" customWidth="1"/>
-    <col min="12" max="14" width="9.14285714285714" style="2"/>
-    <col min="15" max="15" width="11.4285714285714" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.14285714285714" style="2"/>
-    <col min="17" max="17" width="12.4285714285714" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.14285714285714" style="2"/>
-    <col min="20" max="20" width="11.2857142857143" style="2" customWidth="1"/>
-    <col min="21" max="24" width="9.14285714285714" style="2"/>
-    <col min="25" max="25" width="10.5714285714286" style="2" customWidth="1"/>
-    <col min="26" max="30" width="9.14285714285714" style="2"/>
-    <col min="31" max="31" width="12.1428571428571" style="2" customWidth="1"/>
-    <col min="32" max="34" width="9.14285714285714" style="2"/>
+    <col min="1" max="4" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="1"/>
+    <col min="7" max="7" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.14285714285714" style="1"/>
+    <col min="10" max="10" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.8571428571429" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9.14285714285714" style="1"/>
+    <col min="15" max="15" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.14285714285714" style="1"/>
+    <col min="17" max="17" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="21" max="24" width="9.14285714285714" style="1"/>
+    <col min="25" max="25" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="26" max="30" width="9.14285714285714" style="1"/>
+    <col min="31" max="31" width="12.1428571428571" style="1" customWidth="1"/>
+    <col min="32" max="34" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="37" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="40" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-    </row>
-    <row r="2" s="33" customFormat="1" ht="49" customHeight="1" spans="1:34">
-      <c r="A2" s="35" t="s">
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+    </row>
+    <row r="2" s="32" customFormat="1" ht="49" customHeight="1" spans="1:34">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="41" t="s">
+      <c r="AG2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" ht="47.25" spans="2:31">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" ht="63" spans="2:31">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" s="39" t="s">
+      <c r="Y4" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AE4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" ht="63" spans="2:31">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AE5" s="39" t="s">
+      <c r="AE5" s="38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="2:31">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y6" s="39" t="s">
+      <c r="Y6" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AE6" s="39" t="s">
+      <c r="AE6" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" ht="63" spans="2:31">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AE7" s="39" t="s">
+      <c r="AE7" s="38" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:26">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Y8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="Z8" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" ht="63" spans="2:26">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y9" s="39" t="s">
+      <c r="Y9" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" ht="47.25" spans="2:26">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="47.25" spans="2:26">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" ht="47.25" spans="2:26">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Y12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="Z12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Y13" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="2:25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Y14" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Y15" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Y16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Y17" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="5:25">
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="39" t="s">
+      <c r="Y18" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="5:25">
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Y19" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="5:25">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Y20" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="5:25">
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="5:25">
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="Y22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="25:25">
-      <c r="Y23" s="2" t="s">
+      <c r="Y23" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="25:25">
-      <c r="Y24" s="2" t="s">
+      <c r="Y24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="25:25">
-      <c r="Y25" s="2" t="s">
+      <c r="Y25" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4259,50 +4318,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="17.4285714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.4285714285714" style="15" customWidth="1"/>
-    <col min="4" max="6" width="17.8571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4285714285714" style="14" customWidth="1"/>
+    <col min="4" max="6" width="17.8571428571429" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.8571428571429" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.8571428571429" style="1" customWidth="1"/>
     <col min="9" max="9" width="34.8571428571429" customWidth="1"/>
-    <col min="12" max="15" width="16.8571428571429" style="2" customWidth="1"/>
+    <col min="12" max="15" width="16.8571428571429" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>138</v>
       </c>
       <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4310,94 +4369,94 @@
       <c r="A2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" ht="96" customHeight="1" spans="1:15">
       <c r="A3" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="31"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" ht="96" customHeight="1" spans="1:15">
       <c r="A4" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31" t="s">
+      <c r="L4" s="30"/>
+      <c r="M4" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="30">
         <v>100000</v>
       </c>
     </row>
@@ -4405,38 +4464,38 @@
       <c r="A5" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>170</v>
       </c>
       <c r="I5" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
+      <c r="L5" s="30"/>
+      <c r="M5" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="O5" s="31" t="str">
+      <c r="O5" s="30" t="str">
         <f>"True"</f>
         <v>True</v>
       </c>
@@ -4445,128 +4504,128 @@
       <c r="A6" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="O6" s="31"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" ht="96" customHeight="1" spans="1:15">
       <c r="A7" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" ht="96" customHeight="1" spans="1:15">
       <c r="A8" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32" t="s">
+      <c r="L8" s="31"/>
+      <c r="M8" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="O8" s="32"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" ht="47.25" spans="12:15">
-      <c r="L9" s="32"/>
-      <c r="M9" s="32" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="63" spans="12:15">
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="O10" s="32"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="12:13">
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="12" ht="63" spans="13:14">
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4587,14 +4646,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
   <cols>
-    <col min="10" max="10" width="30.1428571428571" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.8571428571429" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.1428571428571" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8571428571429" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.5714285714286" customWidth="1"/>
-    <col min="17" max="18" width="26.4285714285714" style="2" customWidth="1"/>
-    <col min="19" max="19" width="21.5714285714286" style="2" customWidth="1"/>
-    <col min="20" max="21" width="29.1428571428571" style="2" customWidth="1"/>
-    <col min="22" max="22" width="21.8571428571429" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.7142857142857" style="2" customWidth="1"/>
+    <col min="17" max="18" width="26.4285714285714" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="20" max="21" width="29.1428571428571" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="8:24">
@@ -4610,7 +4669,7 @@
       <c r="P4" t="s">
         <v>198</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="1" t="s">
         <v>199</v>
       </c>
       <c r="X4" t="s">
@@ -4618,19 +4677,19 @@
       </c>
     </row>
     <row r="5" spans="10:25">
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="1" t="s">
         <v>205</v>
       </c>
       <c r="X5">
@@ -4641,19 +4700,19 @@
       </c>
     </row>
     <row r="6" spans="10:25">
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="1" t="s">
         <v>210</v>
       </c>
       <c r="X6">
@@ -4664,20 +4723,20 @@
       </c>
     </row>
     <row r="7" ht="47.25" spans="10:25">
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="V7" s="2" t="s">
+      <c r="R7" s="14"/>
+      <c r="V7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="1" t="s">
         <v>215</v>
       </c>
       <c r="X7">
@@ -4694,14 +4753,14 @@
       <c r="I8" t="s">
         <v>217</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="V8" s="2" t="s">
+      <c r="R8" s="14"/>
+      <c r="V8" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="1" t="s">
         <v>220</v>
       </c>
       <c r="X8">
@@ -4712,23 +4771,23 @@
       </c>
     </row>
     <row r="9" spans="10:25">
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>221</v>
       </c>
       <c r="L9" t="s">
         <v>142</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="V9" s="2" t="s">
+      <c r="R9" s="14"/>
+      <c r="V9" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="W9" s="1" t="s">
         <v>224</v>
       </c>
       <c r="X9">
@@ -4739,23 +4798,23 @@
       </c>
     </row>
     <row r="10" spans="10:25">
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L10" t="s">
         <v>227</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="R10" s="15"/>
-      <c r="V10" s="2" t="s">
+      <c r="R10" s="14"/>
+      <c r="V10" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" s="1" t="s">
         <v>230</v>
       </c>
       <c r="X10">
@@ -4766,19 +4825,19 @@
       </c>
     </row>
     <row r="11" spans="10:25">
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L11" t="s">
         <v>232</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R11" s="15"/>
+      <c r="R11" s="14"/>
       <c r="X11">
         <f>SUM(X5:X10)</f>
         <v>100</v>
@@ -4789,27 +4848,27 @@
       </c>
     </row>
     <row r="12" spans="10:18">
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L12" t="s">
         <v>234</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="13" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" spans="10:12">
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L13" t="s">
@@ -4817,10 +4876,10 @@
       </c>
     </row>
     <row r="14" spans="10:12">
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L14" t="s">
@@ -4828,10 +4887,10 @@
       </c>
     </row>
     <row r="15" spans="10:12">
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L15" t="s">
@@ -4839,10 +4898,10 @@
       </c>
     </row>
     <row r="16" spans="10:12">
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L16" t="s">
@@ -4850,10 +4909,10 @@
       </c>
     </row>
     <row r="17" spans="10:12">
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L17" t="s">
@@ -4861,21 +4920,21 @@
       </c>
     </row>
     <row r="18" ht="63" spans="10:12">
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="19" spans="10:12">
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L19" t="s">
@@ -4883,85 +4942,85 @@
       </c>
     </row>
     <row r="20" ht="31.5" spans="10:21">
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" spans="10:22">
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L21" t="s">
         <v>257</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V21" s="1" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="22" spans="10:23">
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L22" t="s">
         <v>232</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="W22" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="23" spans="10:24">
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L23" t="s">
         <v>267</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="1" t="s">
         <v>269</v>
       </c>
       <c r="X23" t="s">
@@ -4969,22 +5028,22 @@
       </c>
     </row>
     <row r="24" spans="10:24">
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L24" t="s">
         <v>272</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="1" t="s">
         <v>275</v>
       </c>
       <c r="X24" t="s">
@@ -4992,45 +5051,45 @@
       </c>
     </row>
     <row r="25" ht="31.5" spans="10:23">
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L25" t="s">
         <v>234</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="W25" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" ht="31.5" spans="10:24">
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L26" t="s">
         <v>241</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="1" t="s">
         <v>284</v>
       </c>
       <c r="X26" t="s">
@@ -5038,10 +5097,10 @@
       </c>
     </row>
     <row r="27" spans="10:24">
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L27" t="s">
@@ -5052,24 +5111,24 @@
       </c>
     </row>
     <row r="28" spans="10:23">
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L28" t="s">
         <v>241</v>
       </c>
-      <c r="W28" s="2" t="s">
+      <c r="W28" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="29" spans="10:12">
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L29" t="s">
@@ -5077,95 +5136,95 @@
       </c>
     </row>
     <row r="30" spans="10:23">
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L30" t="s">
         <v>241</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R30" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="W30" s="2" t="s">
+      <c r="W30" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="31" spans="10:23">
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L31" t="s">
         <v>294</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="W31" s="2" t="s">
+      <c r="W31" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="32" spans="10:18">
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="1" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="33" spans="10:18">
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L33" t="s">
         <v>302</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R33" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="34" spans="10:12">
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="6" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="35" spans="10:18">
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L35" t="s">
@@ -5174,35 +5233,35 @@
       <c r="P35" t="s">
         <v>309</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q35" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R35" s="1" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="36" spans="10:18">
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L36" t="s">
         <v>313</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="Q36" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="R36" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="37" spans="10:12">
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L37" t="s">
@@ -5210,44 +5269,44 @@
       </c>
     </row>
     <row r="38" spans="10:18">
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L38" t="s">
         <v>319</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q38" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="R38" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="39" spans="10:18">
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L39" t="s">
         <v>241</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R39" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="40" spans="10:20">
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L40" t="s">
@@ -5256,93 +5315,93 @@
       <c r="P40" t="s">
         <v>327</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="Q40" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="R40" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="S40" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="T40" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="41" spans="10:20">
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L41" t="s">
         <v>326</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="S41" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" s="1" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="42" spans="10:20">
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L42" t="s">
         <v>338</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="Q42" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R42" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="S42" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="T42" s="1" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="43" spans="10:20">
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L43" t="s">
         <v>338</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="R43" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="S43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="T43" s="1" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="44" spans="10:12">
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L44" t="s">
@@ -5350,10 +5409,10 @@
       </c>
     </row>
     <row r="45" spans="10:12">
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L45" t="s">
@@ -5361,10 +5420,10 @@
       </c>
     </row>
     <row r="46" spans="10:12">
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L46" t="s">
@@ -5372,10 +5431,10 @@
       </c>
     </row>
     <row r="47" spans="10:12">
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L47" t="s">
@@ -5383,10 +5442,10 @@
       </c>
     </row>
     <row r="48" spans="10:12">
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L48" t="s">
@@ -5394,10 +5453,10 @@
       </c>
     </row>
     <row r="49" spans="10:12">
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L49" t="s">
@@ -5405,10 +5464,10 @@
       </c>
     </row>
     <row r="50" spans="10:12">
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L50" t="s">
@@ -5416,10 +5475,10 @@
       </c>
     </row>
     <row r="51" spans="10:12">
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L51" t="s">
@@ -5427,10 +5486,10 @@
       </c>
     </row>
     <row r="52" spans="10:12">
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L52" t="s">
@@ -5438,10 +5497,10 @@
       </c>
     </row>
     <row r="53" spans="10:12">
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L53" t="s">
@@ -5449,10 +5508,10 @@
       </c>
     </row>
     <row r="54" spans="10:12">
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L54" t="s">
@@ -5460,10 +5519,10 @@
       </c>
     </row>
     <row r="55" spans="10:12">
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L55" t="s">
@@ -5471,10 +5530,10 @@
       </c>
     </row>
     <row r="56" spans="10:12">
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L56" t="s">
@@ -5482,10 +5541,10 @@
       </c>
     </row>
     <row r="57" spans="10:12">
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L57" t="s">
@@ -5493,10 +5552,10 @@
       </c>
     </row>
     <row r="58" spans="10:12">
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L58" t="s">
@@ -5504,10 +5563,10 @@
       </c>
     </row>
     <row r="59" spans="10:12">
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L59" t="s">
@@ -5515,10 +5574,10 @@
       </c>
     </row>
     <row r="60" spans="10:12">
-      <c r="J60" s="12" t="s">
+      <c r="J60" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L60" t="s">
@@ -5526,10 +5585,10 @@
       </c>
     </row>
     <row r="61" spans="10:12">
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L61" t="s">
@@ -5537,10 +5596,10 @@
       </c>
     </row>
     <row r="62" spans="10:12">
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L62" t="s">
@@ -5548,10 +5607,10 @@
       </c>
     </row>
     <row r="63" spans="10:12">
-      <c r="J63" s="13" t="s">
+      <c r="J63" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L63" t="s">
@@ -5559,10 +5618,10 @@
       </c>
     </row>
     <row r="64" spans="10:12">
-      <c r="J64" s="12" t="s">
+      <c r="J64" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L64" t="s">
@@ -5570,10 +5629,10 @@
       </c>
     </row>
     <row r="65" spans="10:12">
-      <c r="J65" s="16" t="s">
+      <c r="J65" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L65" t="s">
@@ -5581,10 +5640,10 @@
       </c>
     </row>
     <row r="66" spans="10:12">
-      <c r="J66" s="16" t="s">
+      <c r="J66" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L66" t="s">
@@ -5592,10 +5651,10 @@
       </c>
     </row>
     <row r="67" spans="10:12">
-      <c r="J67" s="16" t="s">
+      <c r="J67" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L67" t="s">
@@ -5603,10 +5662,10 @@
       </c>
     </row>
     <row r="68" spans="10:12">
-      <c r="J68" s="16" t="s">
+      <c r="J68" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L68" t="s">
@@ -5614,10 +5673,10 @@
       </c>
     </row>
     <row r="69" spans="10:12">
-      <c r="J69" s="17" t="s">
+      <c r="J69" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L69" t="s">
@@ -5625,10 +5684,10 @@
       </c>
     </row>
     <row r="70" spans="10:12">
-      <c r="J70" s="16" t="s">
+      <c r="J70" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L70" t="s">
@@ -5636,10 +5695,10 @@
       </c>
     </row>
     <row r="71" spans="10:12">
-      <c r="J71" s="16" t="s">
+      <c r="J71" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L71" t="s">
@@ -5647,10 +5706,10 @@
       </c>
     </row>
     <row r="72" spans="10:12">
-      <c r="J72" s="16" t="s">
+      <c r="J72" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L72" t="s">
@@ -5658,10 +5717,10 @@
       </c>
     </row>
     <row r="73" spans="10:12">
-      <c r="J73" s="16" t="s">
+      <c r="J73" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L73" t="s">
@@ -5669,10 +5728,10 @@
       </c>
     </row>
     <row r="74" spans="10:12">
-      <c r="J74" s="16" t="s">
+      <c r="J74" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L74" t="s">
@@ -5680,10 +5739,10 @@
       </c>
     </row>
     <row r="75" spans="10:12">
-      <c r="J75" s="16" t="s">
+      <c r="J75" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L75" t="s">
@@ -5691,50 +5750,50 @@
       </c>
     </row>
     <row r="76" spans="10:11">
-      <c r="J76" s="16" t="s">
+      <c r="J76" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="77" spans="10:11">
-      <c r="J77" s="16" t="s">
+      <c r="J77" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="78" spans="10:11">
-      <c r="J78" s="16" t="s">
+      <c r="J78" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="79" spans="10:11">
-      <c r="J79" s="16" t="s">
+      <c r="J79" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="80" spans="10:11">
-      <c r="J80" s="16" t="s">
+      <c r="J80" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="81" spans="10:12">
-      <c r="J81" s="16" t="s">
+      <c r="J81" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="K81" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L81" t="s">
@@ -5742,10 +5801,10 @@
       </c>
     </row>
     <row r="82" spans="10:12">
-      <c r="J82" s="16" t="s">
+      <c r="J82" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L82" t="s">
@@ -5753,10 +5812,10 @@
       </c>
     </row>
     <row r="83" spans="10:12">
-      <c r="J83" s="16" t="s">
+      <c r="J83" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L83" t="s">
@@ -5764,10 +5823,10 @@
       </c>
     </row>
     <row r="84" spans="10:12">
-      <c r="J84" s="16" t="s">
+      <c r="J84" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L84" t="s">
@@ -5775,10 +5834,10 @@
       </c>
     </row>
     <row r="85" spans="10:12">
-      <c r="J85" s="16" t="s">
+      <c r="J85" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L85" t="s">
@@ -5786,10 +5845,10 @@
       </c>
     </row>
     <row r="86" spans="10:12">
-      <c r="J86" s="16" t="s">
+      <c r="J86" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L86" t="s">
@@ -5797,10 +5856,10 @@
       </c>
     </row>
     <row r="87" spans="10:12">
-      <c r="J87" s="16" t="s">
+      <c r="J87" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L87" t="s">
@@ -5808,10 +5867,10 @@
       </c>
     </row>
     <row r="88" spans="10:12">
-      <c r="J88" s="16" t="s">
+      <c r="J88" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L88" t="s">
@@ -5819,10 +5878,10 @@
       </c>
     </row>
     <row r="89" spans="10:12">
-      <c r="J89" s="16" t="s">
+      <c r="J89" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L89" t="s">
@@ -5830,10 +5889,10 @@
       </c>
     </row>
     <row r="90" spans="10:12">
-      <c r="J90" s="16" t="s">
+      <c r="J90" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L90" t="s">
@@ -5841,10 +5900,10 @@
       </c>
     </row>
     <row r="91" spans="10:12">
-      <c r="J91" s="16" t="s">
+      <c r="J91" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L91" t="s">
@@ -5852,10 +5911,10 @@
       </c>
     </row>
     <row r="92" spans="10:12">
-      <c r="J92" s="16" t="s">
+      <c r="J92" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K92" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L92" t="s">
@@ -5863,10 +5922,10 @@
       </c>
     </row>
     <row r="93" spans="10:12">
-      <c r="J93" s="16" t="s">
+      <c r="J93" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L93" t="s">
@@ -5874,10 +5933,10 @@
       </c>
     </row>
     <row r="94" spans="10:12">
-      <c r="J94" s="16" t="s">
+      <c r="J94" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L94" t="s">
@@ -5885,10 +5944,10 @@
       </c>
     </row>
     <row r="95" spans="10:12">
-      <c r="J95" s="16" t="s">
+      <c r="J95" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L95" t="s">
@@ -5896,10 +5955,10 @@
       </c>
     </row>
     <row r="96" spans="10:12">
-      <c r="J96" s="16" t="s">
+      <c r="J96" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L96" t="s">
@@ -5907,10 +5966,10 @@
       </c>
     </row>
     <row r="97" spans="10:12">
-      <c r="J97" s="16" t="s">
+      <c r="J97" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L97" t="s">
@@ -5918,10 +5977,10 @@
       </c>
     </row>
     <row r="98" spans="10:12">
-      <c r="J98" s="16" t="s">
+      <c r="J98" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L98" t="s">
@@ -5929,10 +5988,10 @@
       </c>
     </row>
     <row r="99" spans="10:12">
-      <c r="J99" s="18" t="s">
+      <c r="J99" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K99" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L99" t="s">
@@ -5940,21 +5999,21 @@
       </c>
     </row>
     <row r="100" ht="110.25" spans="10:12">
-      <c r="J100" s="19" t="s">
+      <c r="J100" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="L100" s="2" t="s">
+      <c r="K100" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="101" spans="10:12">
-      <c r="J101" s="19" t="s">
+      <c r="J101" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L101" t="s">
@@ -5962,10 +6021,10 @@
       </c>
     </row>
     <row r="102" spans="10:12">
-      <c r="J102" s="19" t="s">
+      <c r="J102" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="K102" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L102" t="s">
@@ -5973,10 +6032,10 @@
       </c>
     </row>
     <row r="103" spans="10:12">
-      <c r="J103" s="19" t="s">
+      <c r="J103" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="K103" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L103" t="s">
@@ -5984,10 +6043,10 @@
       </c>
     </row>
     <row r="104" spans="10:12">
-      <c r="J104" s="17" t="s">
+      <c r="J104" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L104" t="s">
@@ -5995,10 +6054,10 @@
       </c>
     </row>
     <row r="105" spans="10:12">
-      <c r="J105" s="17" t="s">
+      <c r="J105" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L105" t="s">
@@ -6006,10 +6065,10 @@
       </c>
     </row>
     <row r="106" spans="10:12">
-      <c r="J106" s="17" t="s">
+      <c r="J106" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L106" t="s">
@@ -6017,10 +6076,10 @@
       </c>
     </row>
     <row r="107" spans="10:12">
-      <c r="J107" s="20" t="s">
+      <c r="J107" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L107" t="s">
@@ -6028,10 +6087,10 @@
       </c>
     </row>
     <row r="108" spans="10:12">
-      <c r="J108" s="21" t="s">
+      <c r="J108" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L108" t="s">
@@ -6039,10 +6098,10 @@
       </c>
     </row>
     <row r="109" spans="10:12">
-      <c r="J109" s="21" t="s">
+      <c r="J109" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L109" t="s">
@@ -6050,10 +6109,10 @@
       </c>
     </row>
     <row r="110" spans="10:12">
-      <c r="J110" s="21" t="s">
+      <c r="J110" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="K110" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L110" t="s">
@@ -6061,10 +6120,10 @@
       </c>
     </row>
     <row r="111" spans="10:12">
-      <c r="J111" s="20" t="s">
+      <c r="J111" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K111" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L111" t="s">
@@ -6072,10 +6131,10 @@
       </c>
     </row>
     <row r="112" spans="10:12">
-      <c r="J112" s="21" t="s">
+      <c r="J112" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L112" t="s">
@@ -6083,10 +6142,10 @@
       </c>
     </row>
     <row r="113" spans="10:12">
-      <c r="J113" s="20" t="s">
+      <c r="J113" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L113" t="s">
@@ -6094,10 +6153,10 @@
       </c>
     </row>
     <row r="114" spans="10:12">
-      <c r="J114" s="20" t="s">
+      <c r="J114" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L114" t="s">
@@ -6105,10 +6164,10 @@
       </c>
     </row>
     <row r="115" spans="10:12">
-      <c r="J115" s="20" t="s">
+      <c r="J115" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L115" t="s">
@@ -6116,10 +6175,10 @@
       </c>
     </row>
     <row r="116" spans="10:12">
-      <c r="J116" s="22" t="s">
+      <c r="J116" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L116" t="s">
@@ -6127,10 +6186,10 @@
       </c>
     </row>
     <row r="117" spans="10:12">
-      <c r="J117" s="22" t="s">
+      <c r="J117" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L117" t="s">
@@ -6138,10 +6197,10 @@
       </c>
     </row>
     <row r="118" spans="10:12">
-      <c r="J118" s="22" t="s">
+      <c r="J118" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L118" t="s">
@@ -6149,10 +6208,10 @@
       </c>
     </row>
     <row r="119" spans="10:12">
-      <c r="J119" s="22" t="s">
+      <c r="J119" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L119" t="s">
@@ -6160,10 +6219,10 @@
       </c>
     </row>
     <row r="120" spans="10:12">
-      <c r="J120" s="22" t="s">
+      <c r="J120" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L120" t="s">
@@ -6171,10 +6230,10 @@
       </c>
     </row>
     <row r="121" spans="10:12">
-      <c r="J121" s="22" t="s">
+      <c r="J121" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="K121" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L121" t="s">
@@ -6182,10 +6241,10 @@
       </c>
     </row>
     <row r="122" spans="10:12">
-      <c r="J122" s="22" t="s">
+      <c r="J122" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L122" t="s">
@@ -6193,10 +6252,10 @@
       </c>
     </row>
     <row r="123" spans="10:12">
-      <c r="J123" s="23" t="s">
+      <c r="J123" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L123" t="s">
@@ -6204,10 +6263,10 @@
       </c>
     </row>
     <row r="124" spans="10:12">
-      <c r="J124" s="23" t="s">
+      <c r="J124" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="K124" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L124" t="s">
@@ -6215,10 +6274,10 @@
       </c>
     </row>
     <row r="125" spans="10:12">
-      <c r="J125" s="23" t="s">
+      <c r="J125" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L125" t="s">
@@ -6226,10 +6285,10 @@
       </c>
     </row>
     <row r="126" spans="10:12">
-      <c r="J126" s="24" t="s">
+      <c r="J126" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L126" t="s">
@@ -6237,10 +6296,10 @@
       </c>
     </row>
     <row r="127" spans="10:12">
-      <c r="J127" s="22" t="s">
+      <c r="J127" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L127" t="s">
@@ -6248,10 +6307,10 @@
       </c>
     </row>
     <row r="128" spans="10:12">
-      <c r="J128" s="23" t="s">
+      <c r="J128" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L128" t="s">
@@ -6259,10 +6318,10 @@
       </c>
     </row>
     <row r="129" spans="10:12">
-      <c r="J129" s="23" t="s">
+      <c r="J129" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="K129" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L129" t="s">
@@ -6270,10 +6329,10 @@
       </c>
     </row>
     <row r="130" spans="10:12">
-      <c r="J130" s="22" t="s">
+      <c r="J130" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="K130" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L130" t="s">
@@ -6281,10 +6340,10 @@
       </c>
     </row>
     <row r="131" spans="10:12">
-      <c r="J131" s="24" t="s">
+      <c r="J131" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L131" t="s">
@@ -6292,10 +6351,10 @@
       </c>
     </row>
     <row r="132" spans="10:12">
-      <c r="J132" s="22" t="s">
+      <c r="J132" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="K132" s="2" t="s">
+      <c r="K132" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L132" t="s">
@@ -6303,10 +6362,10 @@
       </c>
     </row>
     <row r="133" spans="10:12">
-      <c r="J133" s="24" t="s">
+      <c r="J133" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L133" t="s">
@@ -6314,10 +6373,10 @@
       </c>
     </row>
     <row r="134" spans="10:12">
-      <c r="J134" s="22" t="s">
+      <c r="J134" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L134" t="s">
@@ -6325,10 +6384,10 @@
       </c>
     </row>
     <row r="135" spans="10:12">
-      <c r="J135" s="22" t="s">
+      <c r="J135" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L135" t="s">
@@ -6336,10 +6395,10 @@
       </c>
     </row>
     <row r="136" spans="10:12">
-      <c r="J136" s="22" t="s">
+      <c r="J136" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L136" t="s">
@@ -6347,10 +6406,10 @@
       </c>
     </row>
     <row r="137" spans="10:12">
-      <c r="J137" s="22" t="s">
+      <c r="J137" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="K137" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L137" t="s">
@@ -6358,10 +6417,10 @@
       </c>
     </row>
     <row r="138" spans="10:12">
-      <c r="J138" s="22" t="s">
+      <c r="J138" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L138" t="s">
@@ -6369,10 +6428,10 @@
       </c>
     </row>
     <row r="139" spans="10:12">
-      <c r="J139" s="22" t="s">
+      <c r="J139" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L139" t="s">
@@ -6380,10 +6439,10 @@
       </c>
     </row>
     <row r="140" spans="10:12">
-      <c r="J140" s="22" t="s">
+      <c r="J140" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L140" t="s">
@@ -6391,10 +6450,10 @@
       </c>
     </row>
     <row r="141" spans="10:12">
-      <c r="J141" s="22" t="s">
+      <c r="J141" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L141" t="s">
@@ -6402,10 +6461,10 @@
       </c>
     </row>
     <row r="142" spans="10:12">
-      <c r="J142" s="24" t="s">
+      <c r="J142" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K142" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L142" t="s">
@@ -6413,10 +6472,10 @@
       </c>
     </row>
     <row r="143" spans="10:12">
-      <c r="J143" s="22" t="s">
+      <c r="J143" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="K143" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L143" t="s">
@@ -6424,10 +6483,10 @@
       </c>
     </row>
     <row r="144" spans="10:12">
-      <c r="J144" s="24" t="s">
+      <c r="J144" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L144" t="s">
@@ -6435,10 +6494,10 @@
       </c>
     </row>
     <row r="145" spans="10:12">
-      <c r="J145" s="22" t="s">
+      <c r="J145" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L145" t="s">
@@ -6446,10 +6505,10 @@
       </c>
     </row>
     <row r="146" spans="10:12">
-      <c r="J146" s="22" t="s">
+      <c r="J146" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L146" t="s">
@@ -6457,10 +6516,10 @@
       </c>
     </row>
     <row r="147" spans="10:12">
-      <c r="J147" s="22" t="s">
+      <c r="J147" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K147" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L147" t="s">
@@ -6468,10 +6527,10 @@
       </c>
     </row>
     <row r="148" spans="10:12">
-      <c r="J148" s="24" t="s">
+      <c r="J148" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L148" t="s">
@@ -6479,10 +6538,10 @@
       </c>
     </row>
     <row r="149" spans="10:12">
-      <c r="J149" s="22" t="s">
+      <c r="J149" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L149" t="s">
@@ -6490,10 +6549,10 @@
       </c>
     </row>
     <row r="150" spans="10:12">
-      <c r="J150" s="22" t="s">
+      <c r="J150" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L150" t="s">
@@ -6501,10 +6560,10 @@
       </c>
     </row>
     <row r="151" spans="10:12">
-      <c r="J151" s="22" t="s">
+      <c r="J151" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L151" t="s">
@@ -6512,10 +6571,10 @@
       </c>
     </row>
     <row r="152" spans="10:12">
-      <c r="J152" s="22" t="s">
+      <c r="J152" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L152" t="s">
@@ -6523,10 +6582,10 @@
       </c>
     </row>
     <row r="153" spans="10:12">
-      <c r="J153" s="22" t="s">
+      <c r="J153" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="K153" s="2" t="s">
+      <c r="K153" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L153" t="s">
@@ -6534,10 +6593,10 @@
       </c>
     </row>
     <row r="154" spans="10:12">
-      <c r="J154" s="22" t="s">
+      <c r="J154" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="K154" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L154" t="s">
@@ -6545,10 +6604,10 @@
       </c>
     </row>
     <row r="155" spans="10:12">
-      <c r="J155" s="9" t="s">
+      <c r="J155" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="K155" s="2" t="s">
+      <c r="K155" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L155" t="s">
@@ -6556,10 +6615,10 @@
       </c>
     </row>
     <row r="156" spans="10:12">
-      <c r="J156" s="9" t="s">
+      <c r="J156" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L156" t="s">
@@ -6567,10 +6626,10 @@
       </c>
     </row>
     <row r="157" spans="10:12">
-      <c r="J157" s="9" t="s">
+      <c r="J157" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L157" t="s">
@@ -6578,10 +6637,10 @@
       </c>
     </row>
     <row r="158" spans="10:12">
-      <c r="J158" s="25" t="s">
+      <c r="J158" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="K158" s="2" t="s">
+      <c r="K158" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L158" t="s">
@@ -6589,10 +6648,10 @@
       </c>
     </row>
     <row r="159" spans="10:12">
-      <c r="J159" s="26" t="s">
+      <c r="J159" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L159" t="s">
@@ -6600,10 +6659,10 @@
       </c>
     </row>
     <row r="160" spans="10:12">
-      <c r="J160" s="27" t="s">
+      <c r="J160" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K160" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L160" t="s">
@@ -6611,10 +6670,10 @@
       </c>
     </row>
     <row r="161" spans="10:12">
-      <c r="J161" s="27" t="s">
+      <c r="J161" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L161" t="s">
@@ -6622,10 +6681,10 @@
       </c>
     </row>
     <row r="162" spans="10:12">
-      <c r="J162" s="25" t="s">
+      <c r="J162" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K162" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L162" t="s">
@@ -6633,10 +6692,10 @@
       </c>
     </row>
     <row r="163" spans="10:12">
-      <c r="J163" s="25" t="s">
+      <c r="J163" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="K163" s="2" t="s">
+      <c r="K163" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L163" t="s">
@@ -6644,10 +6703,10 @@
       </c>
     </row>
     <row r="164" spans="10:12">
-      <c r="J164" s="9" t="s">
+      <c r="J164" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="K164" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L164" t="s">
@@ -6655,10 +6714,10 @@
       </c>
     </row>
     <row r="165" spans="10:12">
-      <c r="J165" s="9" t="s">
+      <c r="J165" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="K165" s="2" t="s">
+      <c r="K165" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L165" t="s">
@@ -6666,10 +6725,10 @@
       </c>
     </row>
     <row r="166" spans="10:12">
-      <c r="J166" s="27" t="s">
+      <c r="J166" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L166" t="s">
@@ -6677,10 +6736,10 @@
       </c>
     </row>
     <row r="167" spans="10:12">
-      <c r="J167" s="9" t="s">
+      <c r="J167" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="K167" s="2" t="s">
+      <c r="K167" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L167" t="s">
@@ -6688,10 +6747,10 @@
       </c>
     </row>
     <row r="168" spans="10:12">
-      <c r="J168" s="26" t="s">
+      <c r="J168" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L168" t="s">
@@ -6699,10 +6758,10 @@
       </c>
     </row>
     <row r="169" spans="10:12">
-      <c r="J169" s="26" t="s">
+      <c r="J169" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L169" t="s">
@@ -6710,10 +6769,10 @@
       </c>
     </row>
     <row r="170" spans="10:12">
-      <c r="J170" s="27" t="s">
+      <c r="J170" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="K170" s="2" t="s">
+      <c r="K170" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L170" t="s">
@@ -6721,10 +6780,10 @@
       </c>
     </row>
     <row r="171" spans="10:12">
-      <c r="J171" s="27" t="s">
+      <c r="J171" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L171" t="s">
@@ -6732,10 +6791,10 @@
       </c>
     </row>
     <row r="172" spans="10:12">
-      <c r="J172" s="25" t="s">
+      <c r="J172" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="K172" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L172" t="s">
@@ -6743,10 +6802,10 @@
       </c>
     </row>
     <row r="173" spans="10:12">
-      <c r="J173" s="27" t="s">
+      <c r="J173" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K173" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L173" t="s">
@@ -6754,10 +6813,10 @@
       </c>
     </row>
     <row r="174" spans="10:12">
-      <c r="J174" s="26" t="s">
+      <c r="J174" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="K174" s="2" t="s">
+      <c r="K174" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L174" t="s">
@@ -6765,10 +6824,10 @@
       </c>
     </row>
     <row r="175" spans="10:12">
-      <c r="J175" s="28" t="s">
+      <c r="J175" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L175" t="s">
@@ -6776,10 +6835,10 @@
       </c>
     </row>
     <row r="176" spans="10:12">
-      <c r="J176" s="29" t="s">
+      <c r="J176" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="K176" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L176" t="s">
@@ -6787,10 +6846,10 @@
       </c>
     </row>
     <row r="177" spans="10:12">
-      <c r="J177" s="30" t="s">
+      <c r="J177" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="K177" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L177" t="s">
@@ -6798,10 +6857,10 @@
       </c>
     </row>
     <row r="178" spans="10:12">
-      <c r="J178" s="28" t="s">
+      <c r="J178" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="K178" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L178" t="s">
@@ -6809,10 +6868,10 @@
       </c>
     </row>
     <row r="179" spans="10:12">
-      <c r="J179" s="30" t="s">
+      <c r="J179" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L179" t="s">
@@ -6820,10 +6879,10 @@
       </c>
     </row>
     <row r="180" spans="10:12">
-      <c r="J180" s="28" t="s">
+      <c r="J180" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="K180" s="2" t="s">
+      <c r="K180" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L180" t="s">
@@ -6831,10 +6890,10 @@
       </c>
     </row>
     <row r="181" spans="10:12">
-      <c r="J181" s="30" t="s">
+      <c r="J181" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L181" t="s">
@@ -6842,10 +6901,10 @@
       </c>
     </row>
     <row r="182" spans="10:12">
-      <c r="J182" s="28" t="s">
+      <c r="J182" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="K182" s="2" t="s">
+      <c r="K182" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L182" t="s">
@@ -6853,10 +6912,10 @@
       </c>
     </row>
     <row r="183" spans="10:12">
-      <c r="J183" s="30" t="s">
+      <c r="J183" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="K183" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L183" t="s">
@@ -6864,10 +6923,10 @@
       </c>
     </row>
     <row r="184" spans="10:12">
-      <c r="J184" s="28" t="s">
+      <c r="J184" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="K184" s="2" t="s">
+      <c r="K184" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L184" t="s">
@@ -6875,10 +6934,10 @@
       </c>
     </row>
     <row r="185" spans="10:12">
-      <c r="J185" s="30" t="s">
+      <c r="J185" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="K185" s="2" t="s">
+      <c r="K185" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L185" t="s">
@@ -6886,10 +6945,10 @@
       </c>
     </row>
     <row r="186" spans="10:12">
-      <c r="J186" s="28" t="s">
+      <c r="J186" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L186" t="s">
@@ -6897,10 +6956,10 @@
       </c>
     </row>
     <row r="187" spans="10:12">
-      <c r="J187" s="29" t="s">
+      <c r="J187" s="28" t="s">
         <v>508</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K187" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L187" t="s">
@@ -6908,10 +6967,10 @@
       </c>
     </row>
     <row r="188" spans="10:12">
-      <c r="J188" s="30" t="s">
+      <c r="J188" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="K188" s="2" t="s">
+      <c r="K188" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L188" t="s">
@@ -6919,10 +6978,10 @@
       </c>
     </row>
     <row r="189" spans="10:12">
-      <c r="J189" s="28" t="s">
+      <c r="J189" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="K189" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L189" t="s">
@@ -6930,10 +6989,10 @@
       </c>
     </row>
     <row r="190" spans="10:12">
-      <c r="J190" s="30" t="s">
+      <c r="J190" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="K190" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L190" t="s">
@@ -6941,10 +7000,10 @@
       </c>
     </row>
     <row r="191" spans="10:12">
-      <c r="J191" s="28" t="s">
+      <c r="J191" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L191" t="s">
@@ -6952,10 +7011,10 @@
       </c>
     </row>
     <row r="192" spans="10:12">
-      <c r="J192" s="30" t="s">
+      <c r="J192" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="K192" s="2" t="s">
+      <c r="K192" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L192" t="s">
@@ -6963,10 +7022,10 @@
       </c>
     </row>
     <row r="193" spans="10:12">
-      <c r="J193" s="28" t="s">
+      <c r="J193" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="K193" s="2" t="s">
+      <c r="K193" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L193" t="s">
@@ -6974,10 +7033,10 @@
       </c>
     </row>
     <row r="194" spans="10:12">
-      <c r="J194" s="29" t="s">
+      <c r="J194" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="K194" s="2" t="s">
+      <c r="K194" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L194" t="s">
@@ -6985,10 +7044,10 @@
       </c>
     </row>
     <row r="195" spans="10:12">
-      <c r="J195" s="29" t="s">
+      <c r="J195" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="K195" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L195" t="s">
@@ -6996,10 +7055,10 @@
       </c>
     </row>
     <row r="196" spans="10:12">
-      <c r="J196" s="29" t="s">
+      <c r="J196" s="28" t="s">
         <v>517</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="1" t="s">
         <v>240</v>
       </c>
       <c r="L196" t="s">
@@ -7029,7 +7088,7 @@
     <col min="1" max="1" width="10.4285714285714"/>
     <col min="2" max="3" width="14.2857142857143"/>
     <col min="4" max="4" width="22.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="37.5714285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.5714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7045,7 +7104,7 @@
       <c r="D1" t="s">
         <v>520</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>521</v>
       </c>
     </row>
@@ -7063,7 +7122,7 @@
       <c r="D2" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7078,7 +7137,7 @@
         <f>_xlfn.DISPIMG("ID_DC6C67B114B24CFDB874BFD1C4B82CDE",1)</f>
         <v>=DISPIMG("ID_DC6C67B114B24CFDB874BFD1C4B82CDE",1)</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7167,7 +7226,7 @@
   <dimension ref="C7:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -7203,7 +7262,7 @@
       <c r="E8" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>545</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -7220,7 +7279,7 @@
       <c r="E9" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>545</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -7251,11 +7310,11 @@
       <c r="E11" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" ht="63" spans="3:6">
       <c r="C12" s="1" t="s">
         <v>554</v>
       </c>
@@ -7279,7 +7338,7 @@
       <c r="E13" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>558</v>
       </c>
     </row>

--- a/util/考试.xlsx
+++ b/util/考试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13095" windowHeight="12960" activeTab="5"/>
+    <workbookView windowWidth="27015" windowHeight="12960" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="562">
   <si>
     <t>第一周</t>
   </si>
@@ -1983,6 +1983,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="WPS灵秀黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>需要</t>
     </r>
     <r>
@@ -2051,29 +2057,27 @@
         <rFont val="WPS灵秀黑"/>
         <charset val="134"/>
       </rPr>
-      <t>，挑选没有下架的品，导出的文件还要检查
-1. 淘汰掉那些主图背景色不是白色的品
-2. 有无图片缺失
-3. 父sku是否有子sku</t>
+      <t>，过滤下架的品(Deleted)，导出的文件还要检查
+1. 淘汰掉那些与目标品类（长裤，短裤）不一样的品(Other)
+2. 父sku是否有子sku(Archived)
+3. 有无图片缺失(Archived)</t>
     </r>
   </si>
   <si>
-    <t>同步图片</t>
-  </si>
-  <si>
-    <t>async_sync_img</t>
-  </si>
-  <si>
-    <t>需要检查
-1. 是否有图片打不开
-2. 是否有图片主图背景色不为白色</t>
-  </si>
-  <si>
-    <t>填写亚马逊的批量上传表格</t>
+    <t>验证导出选品，生成预处理信息</t>
+  </si>
+  <si>
+    <t>goods_verification</t>
   </si>
   <si>
     <r>
-      <t>需要</t>
+      <t>1. 过滤掉status处于Inuse, archived, deleted, recalled, other的品
+2. 生成amazon_sku, amazon_psku, parent_child
+3. 生成title, st250和product_description
+4. 生成size和color
+5. 生成图片链接
+6. 生成stanard_price
+需要</t>
     </r>
     <r>
       <rPr>
@@ -2091,8 +2095,25 @@
         <rFont val="WPS灵秀黑"/>
         <charset val="134"/>
       </rPr>
-      <t>是否保存title.xlsx, st250.xlsx, tgt.xlsx, 1.xlsx, erp_df_verify.xlsx</t>
+      <t>是否保存title.xlsx, st250.xlsx, tgt.xlsx,erp_df_verified.xlsx</t>
     </r>
+  </si>
+  <si>
+    <t>同步图片</t>
+  </si>
+  <si>
+    <t>async_sync_img</t>
+  </si>
+  <si>
+    <t>需要检查
+1. 是否有图片打不开
+2. 是否有图片主图背景色不为白色</t>
+  </si>
+  <si>
+    <t>填写亚马逊的批量上传表格</t>
+  </si>
+  <si>
+    <t>生成最终表格1.xlsx</t>
   </si>
 </sst>
 </file>
@@ -7223,10 +7244,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:G13"/>
+  <dimension ref="C7:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="$A11:$XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -7300,7 +7321,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="110.25" spans="3:6">
+    <row r="11" s="1" customFormat="1" ht="141.75" spans="3:6">
       <c r="C11" s="1" t="s">
         <v>551</v>
       </c>
@@ -7314,7 +7335,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="12" ht="63" spans="3:6">
+    <row r="12" ht="220.5" spans="3:6">
       <c r="C12" s="1" t="s">
         <v>554</v>
       </c>
@@ -7322,24 +7343,38 @@
         <v>555</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="13" ht="47.25" spans="3:6">
+    <row r="13" ht="63" spans="3:6">
       <c r="C13" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>558</v>
+      <c r="F14" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/util/考试.xlsx
+++ b/util/考试.xlsx
@@ -2039,6 +2039,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="WPS灵秀黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>需要</t>
     </r>
     <r>
@@ -2071,6 +2077,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="WPS灵秀黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 过滤掉status处于Inuse, archived, deleted, recalled, other的品
 2. 生成amazon_sku, amazon_psku, parent_child
 3. 生成title, st250和product_description
@@ -7246,8 +7258,8 @@
   <sheetPr/>
   <dimension ref="C7:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75" outlineLevelCol="6"/>
